--- a/CustomControlTest/CustomControlTest/改修リストUI案1.xlsx
+++ b/CustomControlTest/CustomControlTest/改修リストUI案1.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daichi\Source\Repos\ViewRepairList\CustomControlTest\CustomControlTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12030" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12030" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="改修リスト案1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="艦これViewerのはなし" sheetId="3" r:id="rId3"/>
+    <sheet name="KancolleViewer内部クラス" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="164">
   <si>
     <t>改修リスト</t>
     <rPh sb="0" eb="2">
@@ -337,6 +339,699 @@
   </si>
   <si>
     <t>〇１</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>View</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ViewModel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Model</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ShipCatalogWindow.xaml</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ShipCatalogWindowViewModelクラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>呼び出し</t>
+    <rPh sb="0" eb="1">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メンバ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ShipLevelFilter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ShipLockFilter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソートモデルクラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各種フィルタモデルクラス</t>
+    <rPh sb="0" eb="2">
+      <t>カクシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SlotItem</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>艦娘の装備クラス</t>
+    <rPh sb="0" eb="2">
+      <t>カンムス</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ソウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクセスレベル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>型</t>
+    <rPh sb="0" eb="1">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>public</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dummy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SlotItemInfo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Info</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LevelText</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NameWithLevel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Proficiency</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ProficiencyText</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>void</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ToString</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メソッド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Remodel(int level,int masterId)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変数</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ToStringのオーバライド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ship</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>艦娘クラス</t>
+    <rPh sb="0" eb="2">
+      <t>カンムス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>艦娘Id、主キー</t>
+    <rPh sb="0" eb="2">
+      <t>カンムス</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>シュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ShipInfo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>public</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IsLocked</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Exp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ExpForNextLevel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ExpForNextRemodelingLevel </t>
+  </si>
+  <si>
+    <t>現在の経験値</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ケイケンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次のレベルまでの経験値</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ケイケンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次の改造までの経験値</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイゾウ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ケイケンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>艦娘のロック状態</t>
+    <rPh sb="0" eb="2">
+      <t>カンムス</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在のレベル</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>艦娘の情報</t>
+    <rPh sb="0" eb="2">
+      <t>カンムス</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ExpForMarrige </t>
+  </si>
+  <si>
+    <t>(仮)までの経験値</t>
+    <rPh sb="1" eb="2">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ケイケンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ExpForLevelMax</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最大レベル</t>
+    <rPh sb="0" eb="2">
+      <t>サイダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改修値</t>
+    <rPh sb="0" eb="2">
+      <t>カイシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熟練度</t>
+    <rPh sb="0" eb="3">
+      <t>ジュクレンド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>装備Id、主キー</t>
+    <rPh sb="0" eb="2">
+      <t>ソウビ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>シュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いわゆる主キー</t>
+    <rPh sb="4" eb="5">
+      <t>シュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SlotItemType </t>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>装備タイプ</t>
+    <rPh sb="0" eb="2">
+      <t>ソウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>装備名</t>
+    <rPh sb="0" eb="2">
+      <t>ソウビ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SlotItemIconType </t>
+  </si>
+  <si>
+    <t>IconType</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイコンの種別</t>
+    <rPh sb="5" eb="7">
+      <t>シュベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CategoryId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>装備のカテゴリ</t>
+    <rPh sb="0" eb="2">
+      <t>ソウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Firepower</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>火力</t>
+    <rPh sb="0" eb="2">
+      <t>カリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>装甲</t>
+    <rPh sb="0" eb="2">
+      <t>ソウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雷装</t>
+    <rPh sb="0" eb="1">
+      <t>ライ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対空</t>
+    <rPh sb="0" eb="2">
+      <t>タイクウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>命中</t>
+    <rPh sb="0" eb="2">
+      <t>メイチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回避</t>
+    <rPh sb="0" eb="2">
+      <t>カイヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>索敵</t>
+    <rPh sb="0" eb="2">
+      <t>サクテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Evade</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ViewRange</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ASW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bomb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Topedo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>爆装</t>
+    <rPh sb="0" eb="1">
+      <t>バク</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ShipType</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shipType</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SortId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソート用ID?</t>
+    <rPh sb="3" eb="4">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>艦娘名</t>
+    <rPh sb="0" eb="2">
+      <t>カンムス</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>艦種</t>
+    <rPh sb="0" eb="2">
+      <t>カンシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Slots</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最大搭載数(艦載機)</t>
+    <rPh sb="0" eb="2">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウサイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>カンサイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ShipSpeed</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Speed</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>速力</t>
+    <rPh sb="0" eb="2">
+      <t>ソクリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SlotItemInfo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ShipSlot[]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Slots</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>艦娘の装備スロット</t>
+    <rPh sb="0" eb="2">
+      <t>カンムス</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ソウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ShipSlot</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ExSlot</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>補強増設</t>
+    <rPh sb="0" eb="2">
+      <t>ホキョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゾウセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TimeSpan</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TimeToRepair</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修理時間</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Condition</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンディション値</t>
+    <rPh sb="7" eb="8">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EquipedSlots</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空いてないスロット</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Expedition</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遠征</t>
+    <rPh sb="0" eb="2">
+      <t>エンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他</t>
+    <rPh sb="0" eb="1">
+      <t>ホカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fleet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>艦隊、複数の艦娘で構成される</t>
+    <rPh sb="0" eb="2">
+      <t>カンタイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンムス</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウセイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -391,7 +1086,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -479,13 +1174,76 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -520,6 +1278,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2882,7 +3661,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2897,7 +3676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:AM22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -3817,4 +4596,951 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:M10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="6" max="6" width="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F5" s="12"/>
+      <c r="G5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="F6" s="12"/>
+      <c r="G6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="F7" s="12"/>
+      <c r="G7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="F8" s="12"/>
+      <c r="G8" t="s">
+        <v>54</v>
+      </c>
+      <c r="M8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="F9" s="12"/>
+      <c r="G9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="M10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:L53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="18.375" customWidth="1"/>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B2" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="16"/>
+      <c r="H2" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="16"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B4" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="16"/>
+      <c r="H4" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="16"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="L5" s="13"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B9" s="13"/>
+      <c r="C9" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B10" s="13"/>
+      <c r="C10" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B12" s="13"/>
+      <c r="C12" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B13" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="16"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B14" s="13"/>
+      <c r="C14" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="L14" s="18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B15" s="13"/>
+      <c r="C15" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B23" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="16"/>
+      <c r="H23" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="16"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B24" s="13"/>
+      <c r="C24" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B25" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="16"/>
+      <c r="H25" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="16"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B26" s="13"/>
+      <c r="C26" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="K26" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L26" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B27" s="13"/>
+      <c r="C27" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="K27" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="L27" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B28" s="13"/>
+      <c r="C28" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="K28" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="L28" s="13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B29" s="13"/>
+      <c r="C29" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="J29" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="K29" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="L29" s="13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B30" s="13"/>
+      <c r="C30" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="J30" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="K30" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="L30" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B31" s="13"/>
+      <c r="C31" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="J31" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="K31" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="L31" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B32" s="13"/>
+      <c r="C32" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B33" s="17"/>
+      <c r="C33" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B34" s="17"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B35" s="17"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B36" s="17"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B37" s="17"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B38" s="17"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B39" s="17"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B40" s="17"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B41" s="17"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B44" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="16"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B45" s="13"/>
+      <c r="C45" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B46" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="16"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B52" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B53" t="s">
+        <v>162</v>
+      </c>
+      <c r="C53" t="s">
+        <v>163</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C23:F23"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>